--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756782.515574794</v>
+        <v>682941.3226391519</v>
       </c>
     </row>
     <row r="7">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="3">
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>212.2853856434421</v>
+        <v>218.2545356023572</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>116.325098768111</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>58.02688117396484</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>80.33470701582003</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,13 +1211,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>121.2086027464166</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -1229,13 +1229,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>8.583694061602047</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>283.084169102328</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>208.8942212908285</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.674275242386</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>27.33952122701454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>46.57295960765337</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.9937234637971</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022416</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>151.5336116314925</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>230.8377913076586</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>88.41081364499567</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>14.13117849406332</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>216.1206161765721</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.302144452314</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199395</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>214.6068472065726</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.8028265087007</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.555310432046248</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S18" t="n">
-        <v>82.35859283669745</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
         <v>197.9863995095175</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>194.0496263582882</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
-        <v>193.8209438199398</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>284.247128003835</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>46.78017858137684</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>76.45886005471962</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
-        <v>142.972076220618</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.06250489120719</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,22 +2283,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>156.9211815276446</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>254.3342481243828</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>144.9998968003358</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>122.5915982230233</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>86.88462298447439</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>49.75696784121567</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>151.1231361759286</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>132.1889238620022</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.53145434773528</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>10.96863942327828</v>
+        <v>135.2600609046107</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2885,7 +2885,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
         <v>104.3883541553076</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>64.99586874835477</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>29.16584928708748</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>172.5913091466756</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>188.2565366168579</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>155.2114886365809</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>38.26659298456762</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>80.8285783423734</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>279.6384992078843</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>126.9458036167327</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.2114886365808</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>117.6685814250382</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>72.4970547959867</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>34.02048567924311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>204.3589581841899</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>86.72221998018418</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>94.63926978363978</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D2" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E2" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F2" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>862.8876260635219</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C3" t="n">
-        <v>817.1412885554689</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N3" t="n">
         <v>781.4136778972854</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y3" t="n">
-        <v>862.8876260635219</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4527,13 +4527,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C5" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E5" t="n">
-        <v>477.1596022224361</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F5" t="n">
-        <v>233.7108255783361</v>
+        <v>251.810259228364</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4597,22 +4597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="Y5" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4658,10 +4658,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4682,16 +4682,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>846.5570557448675</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>603.1082791007675</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X6" t="n">
-        <v>395.2567788952347</v>
+        <v>661.995367579703</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.4964801302808</v>
+        <v>454.2350688147492</v>
       </c>
     </row>
     <row r="7">
@@ -4743,22 +4743,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
         <v>19.28114311021272</v>
@@ -4792,7 +4792,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
         <v>19.28114311021272</v>
@@ -4825,16 +4825,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>587.3248651012614</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
         <v>506.1786963984129</v>
@@ -4846,7 +4846,7 @@
         <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
         <v>262.7299197543128</v>
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>790.6398109613051</v>
+        <v>787.171420448546</v>
       </c>
       <c r="C9" t="n">
-        <v>790.6398109613051</v>
+        <v>612.718391167419</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
       <c r="W9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
       <c r="X9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
       <c r="Y9" t="n">
-        <v>790.6398109613051</v>
+        <v>955.386757468614</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>253.1921406461308</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="C11" t="n">
-        <v>253.1921406461308</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="D11" t="n">
-        <v>253.1921406461308</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="E11" t="n">
-        <v>253.1921406461308</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F11" t="n">
-        <v>253.1921406461308</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G11" t="n">
-        <v>253.1921406461308</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H11" t="n">
         <v>42.18787671600103</v>
@@ -5041,10 +5041,10 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953287</v>
       </c>
       <c r="L11" t="n">
         <v>683.321988080341</v>
@@ -5068,25 +5068,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>1700.628773496707</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1700.628773496707</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V11" t="n">
-        <v>1369.565886153136</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W11" t="n">
-        <v>1016.797230883022</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="X11" t="n">
-        <v>643.3314726219426</v>
+        <v>1515.044971233531</v>
       </c>
       <c r="Y11" t="n">
-        <v>253.1921406461308</v>
+        <v>1124.905639257719</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.1338413064683</v>
+        <v>698.9630066440352</v>
       </c>
       <c r="C12" t="n">
-        <v>814.6808120253413</v>
+        <v>524.5099773629082</v>
       </c>
       <c r="D12" t="n">
-        <v>665.74640236409</v>
+        <v>375.575567701657</v>
       </c>
       <c r="E12" t="n">
-        <v>506.5089473586346</v>
+        <v>216.3381126962014</v>
       </c>
       <c r="F12" t="n">
-        <v>359.9743893855196</v>
+        <v>69.80355472308642</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>69.80355472308642</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>69.80355472308642</v>
       </c>
       <c r="I12" t="n">
         <v>42.18787671600103</v>
@@ -5123,49 +5123,49 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K12" t="n">
-        <v>42.18787671600103</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L12" t="n">
-        <v>388.3205195324424</v>
+        <v>600.0736727994083</v>
       </c>
       <c r="M12" t="n">
-        <v>844.2202093174978</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N12" t="n">
-        <v>1327.893220706756</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O12" t="n">
-        <v>1703.943854684126</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P12" t="n">
-        <v>1988.754573983085</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q12" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2062.350442256967</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S12" t="n">
-        <v>2062.350442256967</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T12" t="n">
-        <v>2062.350442256967</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U12" t="n">
-        <v>2062.350442256967</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V12" t="n">
-        <v>1827.198334025225</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.960977297023</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.10947709149</v>
+        <v>1074.938642429057</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.349178326536</v>
+        <v>867.1783436641033</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
-        <v>407.1880976177522</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H13" t="n">
-        <v>247.391266796609</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I13" t="n">
-        <v>104.1336238879446</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J13" t="n">
         <v>42.18787671600103</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L13" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>275.3573628853532</v>
+        <v>1566.190249651015</v>
       </c>
       <c r="C14" t="n">
-        <v>275.3573628853532</v>
+        <v>1197.227732710603</v>
       </c>
       <c r="D14" t="n">
-        <v>275.3573628853532</v>
+        <v>838.9620341038528</v>
       </c>
       <c r="E14" t="n">
-        <v>42.18787671600103</v>
+        <v>453.1737815056086</v>
       </c>
       <c r="F14" t="n">
         <v>42.18787671600103</v>
@@ -5278,19 +5278,19 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856228</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803409</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
@@ -5314,16 +5314,16 @@
         <v>2109.393835800051</v>
       </c>
       <c r="V14" t="n">
-        <v>1778.330948456481</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W14" t="n">
-        <v>1425.562293186367</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X14" t="n">
-        <v>1052.096534925287</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Y14" t="n">
-        <v>661.957202949475</v>
+        <v>1719.25450382424</v>
       </c>
     </row>
     <row r="15">
@@ -5339,19 +5339,19 @@
         <v>202.9963523598871</v>
       </c>
       <c r="D15" t="n">
-        <v>113.6925001932248</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="E15" t="n">
-        <v>113.6925001932248</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="F15" t="n">
-        <v>113.6925001932248</v>
+        <v>56.46179438677206</v>
       </c>
       <c r="G15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H15" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I15" t="n">
         <v>42.18787671600103</v>
@@ -5360,7 +5360,7 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K15" t="n">
-        <v>162.8271385329676</v>
+        <v>162.8271385329677</v>
       </c>
       <c r="L15" t="n">
         <v>508.959781349409</v>
@@ -5439,40 +5439,40 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R16" t="n">
-        <v>368.8775339168961</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S16" t="n">
-        <v>150.5738812132879</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="T16" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="U16" t="n">
-        <v>42.18787671600103</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>42.18787671600103</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
         <v>42.18787671600103</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1388.191616480669</v>
+        <v>463.1304995250541</v>
       </c>
       <c r="C17" t="n">
-        <v>1388.191616480669</v>
+        <v>463.1304995250541</v>
       </c>
       <c r="D17" t="n">
-        <v>1388.191616480669</v>
+        <v>463.1304995250541</v>
       </c>
       <c r="E17" t="n">
-        <v>1002.403363882425</v>
+        <v>77.34224692680982</v>
       </c>
       <c r="F17" t="n">
-        <v>591.4174590928171</v>
+        <v>77.34224692680982</v>
       </c>
       <c r="G17" t="n">
-        <v>374.642865954865</v>
+        <v>77.34224692680982</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>77.34224692680982</v>
       </c>
       <c r="I17" t="n">
         <v>42.18787671600103</v>
@@ -5521,13 +5521,13 @@
         <v>345.4437346953287</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803412</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
         <v>1777.842707170708</v>
@@ -5539,28 +5539,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S17" t="n">
-        <v>2109.393835800051</v>
+        <v>1834.218536131508</v>
       </c>
       <c r="T17" t="n">
-        <v>2109.393835800051</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="U17" t="n">
-        <v>2109.393835800051</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="V17" t="n">
-        <v>1778.330948456481</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="W17" t="n">
-        <v>1778.330948456481</v>
+        <v>1613.335429826067</v>
       </c>
       <c r="X17" t="n">
-        <v>1778.330948456481</v>
+        <v>1239.869671564988</v>
       </c>
       <c r="Y17" t="n">
-        <v>1388.191616480669</v>
+        <v>849.7303395891759</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>524.8127706638348</v>
+        <v>377.4493816410141</v>
       </c>
       <c r="C18" t="n">
-        <v>350.3597413827078</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="D18" t="n">
-        <v>201.4253317214565</v>
+        <v>202.9963523598871</v>
       </c>
       <c r="E18" t="n">
-        <v>42.18787671600103</v>
+        <v>43.75889735443158</v>
       </c>
       <c r="F18" t="n">
         <v>42.18787671600103</v>
@@ -5597,49 +5597,49 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8271385329676</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="L18" t="n">
-        <v>508.959781349409</v>
+        <v>371.2691274247622</v>
       </c>
       <c r="M18" t="n">
-        <v>964.8594711344645</v>
+        <v>827.1688172098177</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q18" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S18" t="n">
-        <v>2026.203337985206</v>
+        <v>1878.839948962385</v>
       </c>
       <c r="T18" t="n">
-        <v>1826.21707585438</v>
+        <v>1678.853686831559</v>
       </c>
       <c r="U18" t="n">
-        <v>1598.029371614334</v>
+        <v>1450.665982591513</v>
       </c>
       <c r="V18" t="n">
-        <v>1362.877263382591</v>
+        <v>1215.51387435977</v>
       </c>
       <c r="W18" t="n">
-        <v>1108.63990665439</v>
+        <v>961.2765176315688</v>
       </c>
       <c r="X18" t="n">
-        <v>900.7884064488567</v>
+        <v>753.425017426036</v>
       </c>
       <c r="Y18" t="n">
-        <v>693.0281076839028</v>
+        <v>545.6647186610821</v>
       </c>
     </row>
     <row r="19">
@@ -5676,40 +5676,40 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701799</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.255997808103</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053805</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503602</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871617</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842137</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>331.3740542899832</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>331.3740542899832</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842139</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W19" t="n">
         <v>42.18787671600103</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1487.659334100271</v>
+        <v>1073.360139035981</v>
       </c>
       <c r="C20" t="n">
-        <v>1118.69681715986</v>
+        <v>1073.360139035981</v>
       </c>
       <c r="D20" t="n">
-        <v>760.4311185531092</v>
+        <v>715.0944404292302</v>
       </c>
       <c r="E20" t="n">
-        <v>374.642865954865</v>
+        <v>329.3061878309859</v>
       </c>
       <c r="F20" t="n">
-        <v>374.642865954865</v>
+        <v>329.3061878309859</v>
       </c>
       <c r="G20" t="n">
-        <v>374.642865954865</v>
+        <v>329.3061878309859</v>
       </c>
       <c r="H20" t="n">
         <v>42.18787671600103</v>
@@ -5752,13 +5752,13 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L20" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
@@ -5776,28 +5776,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2062.141130162297</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>1874.259174164393</v>
+        <v>1921.511879802148</v>
       </c>
       <c r="T20" t="n">
-        <v>1874.259174164393</v>
+        <v>1700.628773496707</v>
       </c>
       <c r="U20" t="n">
-        <v>1874.259174164393</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="V20" t="n">
-        <v>1874.259174164393</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="W20" t="n">
-        <v>1874.259174164393</v>
+        <v>1446.82589729706</v>
       </c>
       <c r="X20" t="n">
-        <v>1874.259174164393</v>
+        <v>1073.360139035981</v>
       </c>
       <c r="Y20" t="n">
-        <v>1874.259174164393</v>
+        <v>1073.360139035981</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>671.3473286369498</v>
+        <v>748.5785004093939</v>
       </c>
       <c r="C21" t="n">
-        <v>496.8942993558228</v>
+        <v>574.1254711282669</v>
       </c>
       <c r="D21" t="n">
-        <v>347.9598896945715</v>
+        <v>425.1910614670156</v>
       </c>
       <c r="E21" t="n">
-        <v>188.7224346891161</v>
+        <v>265.9536064615601</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600103</v>
+        <v>119.4190484884451</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600103</v>
+        <v>119.4190484884451</v>
       </c>
       <c r="H21" t="n">
         <v>42.18787671600103</v>
@@ -5840,43 +5840,43 @@
         <v>649.8831383448791</v>
       </c>
       <c r="M21" t="n">
-        <v>827.1688172098175</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1589.455839519192</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1965.506473496562</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q21" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S21" t="n">
-        <v>1964.977597193367</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="T21" t="n">
-        <v>1764.991335062541</v>
+        <v>1842.131305394406</v>
       </c>
       <c r="U21" t="n">
-        <v>1536.803630822495</v>
+        <v>1613.94360115436</v>
       </c>
       <c r="V21" t="n">
-        <v>1301.651522590752</v>
+        <v>1378.791492922617</v>
       </c>
       <c r="W21" t="n">
-        <v>1047.414165862551</v>
+        <v>1124.554136194416</v>
       </c>
       <c r="X21" t="n">
-        <v>839.5626656570178</v>
+        <v>1124.554136194416</v>
       </c>
       <c r="Y21" t="n">
-        <v>839.5626656570178</v>
+        <v>916.793837429462</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
         <v>42.18787671600103</v>
@@ -5931,31 +5931,31 @@
         <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>478.6740683752736</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>320.1678244079558</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>320.1678244079558</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T22" t="n">
-        <v>320.1678244079558</v>
+        <v>299.0911576497211</v>
       </c>
       <c r="U22" t="n">
-        <v>320.1678244079558</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="V22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.4833362020689</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>586.1957766411701</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>200.4075240429259</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036444</v>
+        <v>200.4075240429259</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036444</v>
+        <v>200.4075240429259</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2478.514423990285</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2478.514423990285</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W23" t="n">
-        <v>2478.514423990285</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.684526795312</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y23" t="n">
-        <v>1964.5451948195</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C25" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6171,28 +6171,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>640.3667387675712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T25" t="n">
-        <v>640.3667387675712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U25" t="n">
-        <v>640.3667387675712</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="V25" t="n">
-        <v>640.3667387675712</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W25" t="n">
-        <v>350.9495687306105</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X25" t="n">
-        <v>350.9495687306105</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y25" t="n">
-        <v>350.9495687306105</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>766.9259543826058</v>
+        <v>808.6937513590203</v>
       </c>
       <c r="C26" t="n">
-        <v>766.9259543826058</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D26" t="n">
-        <v>766.9259543826058</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2508.596236031542</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2289.961569003604</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2289.961569003604</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1958.898681660034</v>
       </c>
       <c r="X26" t="n">
-        <v>1309.714918859356</v>
+        <v>1585.432923398954</v>
       </c>
       <c r="Y26" t="n">
-        <v>919.5755868835438</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="27">
@@ -6305,7 +6305,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
         <v>266.206002764199</v>
@@ -6329,7 +6329,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
         <v>2488.762748073964</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
         <v>53.94298182036445</v>
@@ -6408,28 +6408,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>290.8087152951862</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V28" t="n">
-        <v>290.8087152951862</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>290.8087152951862</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>819.7731851199076</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="C29" t="n">
-        <v>450.8106681794958</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="D29" t="n">
-        <v>450.8106681794958</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="E29" t="n">
-        <v>65.02241558125161</v>
+        <v>1019.519018857857</v>
       </c>
       <c r="F29" t="n">
-        <v>65.02241558125161</v>
+        <v>608.533114068249</v>
       </c>
       <c r="G29" t="n">
-        <v>65.02241558125161</v>
+        <v>190.5693059664359</v>
       </c>
       <c r="H29" t="n">
-        <v>65.02241558125161</v>
+        <v>190.5693059664359</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6466,10 +6466,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2267.209817970484</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V29" t="n">
-        <v>1936.146930626913</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.378275356799</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X29" t="n">
-        <v>1209.912517095719</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y29" t="n">
-        <v>819.7731851199076</v>
+        <v>1406.118858921978</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
         <v>221.4284102424006</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.4805193761945</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C31" t="n">
-        <v>546.4805193761945</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D31" t="n">
-        <v>546.4805193761945</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E31" t="n">
-        <v>546.4805193761945</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0200655508536</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
         <v>53.94298182036445</v>
@@ -6660,13 +6660,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1577.945354755378</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="C32" t="n">
-        <v>1208.982837814967</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D32" t="n">
-        <v>850.7171392082162</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2478.514423990285</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2478.514423990285</v>
+        <v>1979.565831364064</v>
       </c>
       <c r="W32" t="n">
-        <v>2125.745768720171</v>
+        <v>1979.565831364064</v>
       </c>
       <c r="X32" t="n">
-        <v>1752.280010459091</v>
+        <v>1606.100073102984</v>
       </c>
       <c r="Y32" t="n">
-        <v>1752.280010459091</v>
+        <v>1215.960741127172</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6782,22 +6782,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>281.9325327183818</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1718.448825665083</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C35" t="n">
-        <v>1349.486308724672</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D35" t="n">
-        <v>991.2206101179211</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E35" t="n">
-        <v>991.2206101179211</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>135.5880104490245</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224075</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U35" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V35" t="n">
-        <v>2478.514423990285</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W35" t="n">
-        <v>2478.514423990285</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X35" t="n">
-        <v>2105.048665729205</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y35" t="n">
-        <v>2105.048665729205</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7055,10 +7055,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
         <v>1156.713312237151</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7125,22 +7125,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036444</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036444</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036444</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>962.1194880117298</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C38" t="n">
-        <v>593.1569710713181</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D38" t="n">
-        <v>593.1569710713181</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="E38" t="n">
-        <v>593.1569710713181</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F38" t="n">
-        <v>182.1710662817106</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
         <v>53.94298182036445</v>
@@ -7174,10 +7174,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
         <v>881.2824271224076</v>
@@ -7186,7 +7186,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X38" t="n">
-        <v>1738.858660051663</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y38" t="n">
-        <v>1348.719328075852</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7277,19 +7277,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>2540.369809567131</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>2540.369809567131</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>2540.369809567131</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V40" t="n">
-        <v>2540.369809567131</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>2250.95263953017</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.38774159731</v>
+        <v>1370.712364606781</v>
       </c>
       <c r="C41" t="n">
-        <v>1314.38774159731</v>
+        <v>1001.749847666369</v>
       </c>
       <c r="D41" t="n">
-        <v>956.1220429905595</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E41" t="n">
-        <v>956.1220429905595</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F41" t="n">
-        <v>545.136138200952</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>127.1723300991389</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>1704.527073573122</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X41" t="n">
-        <v>1704.527073573122</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.38774159731</v>
+        <v>1757.312204670903</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641985</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>257.3069090307624</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W43" t="n">
-        <v>438.9553738610022</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X43" t="n">
-        <v>438.9553738610022</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y43" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1666.64813361638</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="C44" t="n">
-        <v>1297.685616675968</v>
+        <v>1099.292566481063</v>
       </c>
       <c r="D44" t="n">
-        <v>1297.685616675968</v>
+        <v>741.0268678743123</v>
       </c>
       <c r="E44" t="n">
-        <v>1297.685616675968</v>
+        <v>741.0268678743123</v>
       </c>
       <c r="F44" t="n">
-        <v>886.6997118863608</v>
+        <v>741.0268678743123</v>
       </c>
       <c r="G44" t="n">
-        <v>468.7359037845476</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>141.5411838205505</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7657,7 +7657,7 @@
         <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656313</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V44" t="n">
-        <v>2443.387305656313</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>2443.387305656313</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X44" t="n">
-        <v>2443.387305656313</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y44" t="n">
-        <v>2053.247973680502</v>
+        <v>1485.892406545184</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632152</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.26528169842</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>2407.97548067279</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>2407.97548067279</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>2118.558310635829</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>142.5962444444444</v>
@@ -8306,13 +8306,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K12" t="n">
-        <v>50.57316300554223</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>226.4285348520591</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8536593442529</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K15" t="n">
-        <v>172.4310032247004</v>
+        <v>172.4310032247005</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509471</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033752</v>
       </c>
       <c r="K18" t="n">
-        <v>172.4310032247004</v>
+        <v>50.57316300554227</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>353.6167169118631</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509468</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>184.2767698912958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>176.1159433919877</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719075</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928319</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="3">
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>89.4935500423481</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22725,10 +22725,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22789,16 +22789,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>203.0173518716929</v>
+        <v>197.0482019127778</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22922,13 +22922,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>116.4754883813142</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>147.7461040295127</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23032,10 +23032,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>171.0109458920165</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>26.23646281822218</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -23117,13 +23117,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>191.5810346332196</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>99.64967256115261</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>120.2362180556468</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
         <v>171.5352284535379</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>43.45005601543698</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.030545984418</v>
+        <v>66.60350559207139</v>
       </c>
       <c r="S12" t="n">
-        <v>161.6448423772186</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.54417399343893</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,13 +23472,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>231.2002300319881</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>151.0925787646031</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393332</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
@@ -23554,13 +23554,13 @@
         <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>59.03425191964308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8030829366063</v>
+        <v>122.671904442543</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T16" t="n">
-        <v>118.7075495798339</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830285</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>199.6858219312362</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>136.7324019448372</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>143.5139019613376</v>
       </c>
       <c r="G18" t="n">
         <v>136.8030829366063</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>79.28624954052117</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022416</v>
+        <v>61.32628970022417</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385099</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
-        <v>216.1206161765721</v>
+        <v>22.07098981828395</v>
       </c>
       <c r="T19" t="n">
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>58.31669950388823</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>44.88331134264024</v>
       </c>
       <c r="I20" t="n">
         <v>171.5352284535379</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>39.64023165255645</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24065,7 +24065,7 @@
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>107.0159873637655</v>
+        <v>30.55712730904591</v>
       </c>
       <c r="I21" t="n">
         <v>70.78957724245151</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>18.67276615660066</v>
+        <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>38.26378480901697</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>156.9211815276446</v>
       </c>
       <c r="S22" t="n">
         <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>31.96006767385956</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>178.9228759640213</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>247.1395024554458</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24411,25 +24411,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>59.78056899568347</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>236.5249064007621</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>231.610705487552</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24460,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>42.22678894696932</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>56.63943449405987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>140.962676821583</v>
+        <v>16.67125534025055</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>102.2509523502731</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>116.2551987358438</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>210.1425325168049</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>139.495721853277</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>72.60755131498752</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25131,7 +25131,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>131.0703856053968</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>368.6094527571438</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>71.10273790248785</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25365,22 +25365,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>102.2918708643775</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>286.8383664040623</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>56.93405031343812</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>237.0144601956447</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>251.4257179683705</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>111.4005623436881</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>28.98780970275092</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>209.4252118366051</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>65.20909626467707</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>50.78177823929147</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.3098022590509</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465547.6078130901</v>
+        <v>465547.60781309</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>465547.6078130902</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>675394.1115855708</v>
+        <v>675394.1115855707</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675394.1115855708</v>
+        <v>675394.1115855707</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675394.1115855704</v>
+        <v>675394.1115855707</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675394.1115855705</v>
+        <v>675394.1115855707</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="C2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
         <v>157852.6389047657</v>
@@ -26328,34 +26328,34 @@
         <v>235437.2422819576</v>
       </c>
       <c r="G2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819576</v>
+        <v>235437.2422819575</v>
       </c>
       <c r="I2" t="n">
-        <v>274694.9795149695</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>274694.9795149697</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="P2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="P2" t="n">
-        <v>274694.9795149699</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134255</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871078</v>
+        <v>71355.62051871086</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="C4" t="n">
-        <v>42017.42535589614</v>
+        <v>42017.42535589615</v>
       </c>
       <c r="D4" t="n">
         <v>42017.42535589614</v>
       </c>
       <c r="E4" t="n">
-        <v>43830.75094230082</v>
+        <v>43830.75094230083</v>
       </c>
       <c r="F4" t="n">
         <v>43830.75094230082</v>
       </c>
       <c r="G4" t="n">
-        <v>43830.75094230082</v>
+        <v>43830.75094230083</v>
       </c>
       <c r="H4" t="n">
-        <v>43830.75094230082</v>
+        <v>43830.75094230083</v>
       </c>
       <c r="I4" t="n">
-        <v>44802.6561755686</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="J4" t="n">
         <v>44802.65617556861</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13215.48674643974</v>
+        <v>-25433.4973664803</v>
       </c>
       <c r="C6" t="n">
-        <v>67553.94478510795</v>
+        <v>55335.93416506745</v>
       </c>
       <c r="D6" t="n">
-        <v>67553.94478510792</v>
+        <v>55335.93416506745</v>
       </c>
       <c r="E6" t="n">
-        <v>-133285.3532710752</v>
+        <v>-141419.9637133687</v>
       </c>
       <c r="F6" t="n">
-        <v>154066.3567423503</v>
+        <v>145931.7463000569</v>
       </c>
       <c r="G6" t="n">
-        <v>154066.3567423503</v>
+        <v>145931.7463000568</v>
       </c>
       <c r="H6" t="n">
-        <v>154066.3567423503</v>
+        <v>145931.7463000568</v>
       </c>
       <c r="I6" t="n">
-        <v>46372.14376429938</v>
+        <v>40303.7300184803</v>
       </c>
       <c r="J6" t="n">
-        <v>117600.9026768855</v>
+        <v>111532.4889310662</v>
       </c>
       <c r="K6" t="n">
-        <v>180660.8452759917</v>
+        <v>174592.4315301724</v>
       </c>
       <c r="L6" t="n">
-        <v>180660.8452759916</v>
+        <v>174592.4315301725</v>
       </c>
       <c r="M6" t="n">
-        <v>109305.224757281</v>
+        <v>103236.8110114616</v>
       </c>
       <c r="N6" t="n">
-        <v>180660.8452759916</v>
+        <v>174592.4315301726</v>
       </c>
       <c r="O6" t="n">
-        <v>180660.8452759917</v>
+        <v>174592.4315301726</v>
       </c>
       <c r="P6" t="n">
-        <v>180660.8452759919</v>
+        <v>174592.4315301725</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="H3" t="n">
         <v>251.2545088598902</v>
@@ -26810,7 +26810,7 @@
         <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598902</v>
+        <v>251.2545088598901</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>286.3341700723537</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>146.9388138045427</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>286.3341700723538</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>146.9388138045426</v>
-      </c>
-      <c r="J4" t="n">
-        <v>241.0142888776592</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>286.3341700723535</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M11" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S11" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J12" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M12" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O12" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H13" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I13" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M14" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S14" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H16" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I16" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.01006837732619</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929186</v>
+        <v>10.34436276929185</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686799</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008883</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523066</v>
+        <v>128.4844853523065</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549029</v>
       </c>
       <c r="M17" t="n">
         <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372556</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102183</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819838</v>
+        <v>109.0760214819837</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721636</v>
       </c>
       <c r="S17" t="n">
-        <v>23.0169331483206</v>
+        <v>23.01693314832059</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745401</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609525</v>
+        <v>0.08080547018609521</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042919</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730924</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896356</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632917</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881672</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142346</v>
+        <v>117.3429666142345</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026662</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.199234025867</v>
+        <v>103.1992340258669</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092683</v>
+        <v>68.9859549609268</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057176</v>
+        <v>33.55432856057175</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304142</v>
+        <v>2.17832918530414</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922976</v>
+        <v>0.03555488332922974</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227525</v>
       </c>
       <c r="H19" t="n">
-        <v>4.02830999450775</v>
+        <v>4.028309994507748</v>
       </c>
       <c r="I19" t="n">
         <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644862</v>
+        <v>32.0328904164486</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933433</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269909</v>
+        <v>67.36092193269906</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985386</v>
+        <v>71.02264747985382</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620547</v>
+        <v>69.33388766620544</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464871</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970452</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.9394308378434</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952486</v>
+        <v>20.37220984952485</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400147</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133578</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.0247135582485138</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N11" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,10 +35491,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.8920740070363</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M12" t="n">
         <v>460.5047371566217</v>
@@ -35506,10 +35506,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q12" t="n">
-        <v>121.8578402191582</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M13" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>121.8578402191582</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378196</v>
+        <v>349.6289321378195</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547631</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784908</v>
+        <v>232.5400468784907</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353661</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257373</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526488</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512769</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743891</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>121.8578402191582</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>349.6289321378196</v>
+        <v>332.4053037462235</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -35983,7 +35983,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.3703872434515</v>
+        <v>30.37038724345148</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301522</v>
+        <v>94.9509471930152</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.4660600454341</v>
+        <v>113.466060045434</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868838</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.076755754598</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36208,7 +36208,7 @@
         <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>179.0764432979176</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
         <v>488.5585973628865</v>
@@ -36217,10 +36217,10 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>145.3407700035245</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,7 +37396,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624587</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,7 +37873,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060959</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
         <v>478.8956552492236</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>682941.3226391519</v>
+        <v>748648.3752055325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298023</v>
+        <v>405687.0519298027</v>
       </c>
     </row>
     <row r="8">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>241.0142888776591</v>
@@ -673,7 +673,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>55.57566235103577</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,10 +791,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,7 +803,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,73 +898,73 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>218.2545356023572</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>55.57566235103572</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>58.02688117396484</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>220.2131257424249</v>
+        <v>130.9180362598743</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>8.583694061602047</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>82.69355372315663</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1302,43 +1302,43 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>283.084169102328</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>303.7801715004418</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>27.33952122701454</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9058271976456</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>184.9488397892216</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>193.8209438199395</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>39.87345846881803</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>151.5336116314925</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>107.9559071679611</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1691,22 +1691,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>14.13117849406332</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1742,7 +1742,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9058271976456</v>
+        <v>75.83000041467301</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>193.8209438199395</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>34.8028265087007</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393332</v>
+        <v>74.25082755077527</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1928,13 +1928,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>1.555310432046248</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207139</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
@@ -1979,7 +1979,7 @@
         <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9058271976456</v>
+        <v>146.6195776571245</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>26.28304636270376</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>194.0496263582882</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2943157982424</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>124.0948714990284</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>284.247128003835</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2171,13 +2171,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>76.45886005471962</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>82.35859283669745</v>
       </c>
       <c r="T21" t="n">
         <v>197.9863995095175</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>254.3342481243828</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>57.18787261665877</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>144.9998968003358</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>49.75696784121567</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>186.7978771016337</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.1889238620022</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2715,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2800,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>310.8635759547339</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>135.2600609046107</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>64.99586874835477</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>188.2565366168579</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>45.72464126839808</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>164.6639454815213</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>80.8285783423734</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609189</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>43.31785343913981</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>52.10844059186255</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>279.6384992078843</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>68.53712775585173</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3596,13 +3596,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>142.567753130208</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>117.6685814250382</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>35.81288263150639</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3954,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V43" t="n">
-        <v>223.1498336210771</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>376.1848636439235</v>
       </c>
       <c r="G44" t="n">
-        <v>204.3589581841899</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>129.0246247964033</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4312,13 +4312,13 @@
         <v>749.627473042513</v>
       </c>
       <c r="D2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4351,28 +4351,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
         <v>749.627473042513</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="C3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="D3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="E3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G3" t="n">
         <v>19.28114311021272</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>283.2696759935595</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y3" t="n">
-        <v>75.41817578802664</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="4">
@@ -4527,7 +4527,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>495.259035872464</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>495.259035872464</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>495.259035872464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>251.810259228364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y5" t="n">
-        <v>495.259035872464</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>454.2350688147492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>454.2350688147492</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>661.995367579703</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
-        <v>454.2350688147492</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4761,7 +4761,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T8" t="n">
-        <v>728.6161971483371</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>787.171420448546</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>612.718391167419</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>463.7839815061678</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
         <v>19.28114311021272</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>955.386757468614</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>955.386757468614</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V9" t="n">
-        <v>955.386757468614</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>955.386757468614</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>955.386757468614</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>955.386757468614</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4986,28 +4986,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>838.9620341038528</v>
+        <v>1327.85919521371</v>
       </c>
       <c r="C11" t="n">
-        <v>838.9620341038528</v>
+        <v>958.8966782732987</v>
       </c>
       <c r="D11" t="n">
-        <v>838.9620341038528</v>
+        <v>958.8966782732987</v>
       </c>
       <c r="E11" t="n">
-        <v>453.1737815056086</v>
+        <v>958.8966782732987</v>
       </c>
       <c r="F11" t="n">
-        <v>42.18787671600103</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="G11" t="n">
-        <v>42.18787671600103</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L11" t="n">
         <v>683.321988080341</v>
@@ -5053,7 +5053,7 @@
         <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O11" t="n">
         <v>1777.842707170708</v>
@@ -5062,31 +5062,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="T11" t="n">
         <v>1888.510729494611</v>
       </c>
       <c r="U11" t="n">
-        <v>1888.510729494611</v>
+        <v>1634.707853294965</v>
       </c>
       <c r="V11" t="n">
-        <v>1888.510729494611</v>
+        <v>1634.707853294965</v>
       </c>
       <c r="W11" t="n">
-        <v>1888.510729494611</v>
+        <v>1634.707853294965</v>
       </c>
       <c r="X11" t="n">
-        <v>1515.044971233531</v>
+        <v>1327.85919521371</v>
       </c>
       <c r="Y11" t="n">
-        <v>1124.905639257719</v>
+        <v>1327.85919521371</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>698.9630066440352</v>
+        <v>665.74640236409</v>
       </c>
       <c r="C12" t="n">
-        <v>524.5099773629082</v>
+        <v>665.74640236409</v>
       </c>
       <c r="D12" t="n">
-        <v>375.575567701657</v>
+        <v>665.74640236409</v>
       </c>
       <c r="E12" t="n">
-        <v>216.3381126962014</v>
+        <v>506.5089473586346</v>
       </c>
       <c r="F12" t="n">
-        <v>69.80355472308642</v>
+        <v>359.9743893855196</v>
       </c>
       <c r="G12" t="n">
-        <v>69.80355472308642</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="H12" t="n">
-        <v>69.80355472308642</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600103</v>
+        <v>91.99734226147167</v>
       </c>
       <c r="K12" t="n">
-        <v>253.941029982967</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L12" t="n">
-        <v>600.0736727994083</v>
+        <v>649.8831383448791</v>
       </c>
       <c r="M12" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N12" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599076</v>
       </c>
       <c r="O12" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576446</v>
       </c>
       <c r="P12" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237204</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="T12" t="n">
-        <v>1746.129955106379</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="U12" t="n">
-        <v>1517.942250866333</v>
+        <v>1717.928512997159</v>
       </c>
       <c r="V12" t="n">
-        <v>1282.79014263459</v>
+        <v>1482.776404765416</v>
       </c>
       <c r="W12" t="n">
-        <v>1282.79014263459</v>
+        <v>1228.539048037215</v>
       </c>
       <c r="X12" t="n">
-        <v>1074.938642429057</v>
+        <v>1041.722038149112</v>
       </c>
       <c r="Y12" t="n">
-        <v>867.1783436641033</v>
+        <v>833.9617393841581</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42.18787671600103</v>
+        <v>487.1075572086403</v>
       </c>
       <c r="C13" t="n">
-        <v>42.18787671600103</v>
+        <v>487.1075572086403</v>
       </c>
       <c r="D13" t="n">
-        <v>42.18787671600103</v>
+        <v>336.9909177963045</v>
       </c>
       <c r="E13" t="n">
-        <v>42.18787671600103</v>
+        <v>189.0778242139114</v>
       </c>
       <c r="F13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701804</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U13" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="V13" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="W13" t="n">
-        <v>42.18787671600103</v>
+        <v>487.1075572086403</v>
       </c>
       <c r="X13" t="n">
-        <v>42.18787671600103</v>
+        <v>487.1075572086403</v>
       </c>
       <c r="Y13" t="n">
-        <v>42.18787671600103</v>
+        <v>487.1075572086403</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1566.190249651015</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="C14" t="n">
-        <v>1197.227732710603</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="D14" t="n">
-        <v>838.9620341038528</v>
+        <v>1257.439477677397</v>
       </c>
       <c r="E14" t="n">
-        <v>453.1737815056086</v>
+        <v>871.6512250791529</v>
       </c>
       <c r="F14" t="n">
-        <v>42.18787671600103</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G14" t="n">
         <v>42.18787671600103</v>
@@ -5278,10 +5278,10 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L14" t="n">
         <v>683.321988080341</v>
@@ -5290,7 +5290,7 @@
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
@@ -5311,19 +5311,19 @@
         <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>2109.393835800051</v>
+        <v>2000.347464923323</v>
       </c>
       <c r="V14" t="n">
-        <v>2109.393835800051</v>
+        <v>2000.347464923323</v>
       </c>
       <c r="W14" t="n">
-        <v>2109.393835800051</v>
+        <v>1647.578809653209</v>
       </c>
       <c r="X14" t="n">
-        <v>2109.393835800051</v>
+        <v>1647.578809653209</v>
       </c>
       <c r="Y14" t="n">
-        <v>1719.25450382424</v>
+        <v>1257.439477677397</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>377.4493816410141</v>
+        <v>596.3173941410586</v>
       </c>
       <c r="C15" t="n">
-        <v>202.9963523598871</v>
+        <v>421.8643648599316</v>
       </c>
       <c r="D15" t="n">
-        <v>202.9963523598871</v>
+        <v>272.9299551986803</v>
       </c>
       <c r="E15" t="n">
-        <v>202.9963523598871</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="F15" t="n">
-        <v>56.46179438677206</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I15" t="n">
         <v>42.18787671600103</v>
@@ -5360,49 +5360,49 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K15" t="n">
-        <v>162.8271385329677</v>
+        <v>253.9410299829671</v>
       </c>
       <c r="L15" t="n">
-        <v>508.959781349409</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M15" t="n">
-        <v>964.8594711344645</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1448.532482523722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O15" t="n">
-        <v>1824.583116501092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q15" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.853686831559</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U15" t="n">
-        <v>1450.665982591513</v>
+        <v>1669.533995091557</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.51387435977</v>
+        <v>1434.381886859815</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315688</v>
+        <v>1180.144530131613</v>
       </c>
       <c r="X15" t="n">
-        <v>753.425017426036</v>
+        <v>972.2930299260804</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.6647186610821</v>
+        <v>764.5327311611265</v>
       </c>
     </row>
     <row r="16">
@@ -5439,34 +5439,34 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701802</v>
       </c>
       <c r="L16" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U16" t="n">
         <v>331.6050467529616</v>
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.1304995250541</v>
+        <v>1660.927241629098</v>
       </c>
       <c r="C17" t="n">
-        <v>463.1304995250541</v>
+        <v>1291.964724688686</v>
       </c>
       <c r="D17" t="n">
-        <v>463.1304995250541</v>
+        <v>933.6990260819355</v>
       </c>
       <c r="E17" t="n">
-        <v>77.34224692680982</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="F17" t="n">
-        <v>77.34224692680982</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="G17" t="n">
-        <v>77.34224692680982</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H17" t="n">
-        <v>77.34224692680982</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I17" t="n">
         <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L17" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803408</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
@@ -5539,28 +5539,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826067</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.335429826067</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="V17" t="n">
-        <v>1613.335429826067</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="W17" t="n">
-        <v>1613.335429826067</v>
+        <v>2034.392999890177</v>
       </c>
       <c r="X17" t="n">
-        <v>1239.869671564988</v>
+        <v>1660.927241629098</v>
       </c>
       <c r="Y17" t="n">
-        <v>849.7303395891759</v>
+        <v>1660.927241629098</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.4493816410141</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C18" t="n">
-        <v>202.9963523598871</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D18" t="n">
-        <v>202.9963523598871</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E18" t="n">
-        <v>43.75889735443158</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F18" t="n">
         <v>42.18787671600103</v>
@@ -5600,10 +5600,10 @@
         <v>42.18787671600103</v>
       </c>
       <c r="L18" t="n">
-        <v>371.2691274247622</v>
+        <v>371.269127424762</v>
       </c>
       <c r="M18" t="n">
-        <v>827.1688172098177</v>
+        <v>827.1688172098175</v>
       </c>
       <c r="N18" t="n">
         <v>1310.841828599075</v>
@@ -5612,34 +5612,34 @@
         <v>1686.892462576445</v>
       </c>
       <c r="P18" t="n">
-        <v>1971.703181875405</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q18" t="n">
         <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.853686831559</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591513</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.51387435977</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315688</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X18" t="n">
-        <v>753.425017426036</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610821</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600103</v>
+        <v>68.73640839549978</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600103</v>
+        <v>68.73640839549978</v>
       </c>
       <c r="I19" t="n">
         <v>42.18787671600103</v>
@@ -5676,49 +5676,49 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701802</v>
       </c>
       <c r="L19" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S19" t="n">
-        <v>331.3740542899832</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>331.3740542899832</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V19" t="n">
-        <v>42.18787671600103</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600103</v>
+        <v>237.9666078472533</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1073.360139035981</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="C20" t="n">
-        <v>1073.360139035981</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="D20" t="n">
-        <v>715.0944404292302</v>
+        <v>1763.162374445087</v>
       </c>
       <c r="E20" t="n">
-        <v>329.3061878309859</v>
+        <v>1377.374121846843</v>
       </c>
       <c r="F20" t="n">
-        <v>329.3061878309859</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="G20" t="n">
-        <v>329.3061878309859</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I20" t="n">
         <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L20" t="n">
         <v>683.3219880803409</v>
@@ -5779,25 +5779,25 @@
         <v>2109.393835800051</v>
       </c>
       <c r="S20" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T20" t="n">
-        <v>1700.628773496707</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="U20" t="n">
-        <v>1446.82589729706</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="V20" t="n">
-        <v>1446.82589729706</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="W20" t="n">
-        <v>1446.82589729706</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="X20" t="n">
-        <v>1073.360139035981</v>
+        <v>1888.510729494611</v>
       </c>
       <c r="Y20" t="n">
-        <v>1073.360139035981</v>
+        <v>1888.510729494611</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>748.5785004093939</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C21" t="n">
-        <v>574.1254711282669</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D21" t="n">
-        <v>425.1910614670156</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>265.9536064615601</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F21" t="n">
-        <v>119.4190484884451</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G21" t="n">
-        <v>119.4190484884451</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H21" t="n">
         <v>42.18787671600103</v>
@@ -5831,22 +5831,22 @@
         <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>91.99734226147166</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K21" t="n">
-        <v>303.7504955284377</v>
+        <v>162.8271385329676</v>
       </c>
       <c r="L21" t="n">
-        <v>649.8831383448791</v>
+        <v>508.959781349409</v>
       </c>
       <c r="M21" t="n">
-        <v>1105.782828129934</v>
+        <v>964.8594711344645</v>
       </c>
       <c r="N21" t="n">
-        <v>1589.455839519192</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O21" t="n">
-        <v>1965.506473496562</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P21" t="n">
         <v>2109.393835800051</v>
@@ -5855,28 +5855,28 @@
         <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>2042.117567525232</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T21" t="n">
-        <v>1842.131305394406</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U21" t="n">
-        <v>1613.94360115436</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V21" t="n">
-        <v>1378.791492922617</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W21" t="n">
-        <v>1124.554136194416</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X21" t="n">
-        <v>1124.554136194416</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y21" t="n">
-        <v>916.793837429462</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5913,7 +5913,7 @@
         <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701802</v>
       </c>
       <c r="L22" t="n">
         <v>166.2559978081031</v>
@@ -5940,13 +5940,13 @@
         <v>527.3837778842139</v>
       </c>
       <c r="T22" t="n">
-        <v>299.0911576497211</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U22" t="n">
-        <v>42.18787671600103</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V22" t="n">
-        <v>42.18787671600103</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W22" t="n">
         <v>42.18787671600103</v>
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>944.4614752479206</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="C23" t="n">
-        <v>944.4614752479206</v>
+        <v>1779.584617183058</v>
       </c>
       <c r="D23" t="n">
-        <v>586.1957766411701</v>
+        <v>1421.318918576308</v>
       </c>
       <c r="E23" t="n">
-        <v>200.4075240429259</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F23" t="n">
-        <v>200.4075240429259</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G23" t="n">
-        <v>200.4075240429259</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6019,22 +6019,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>2057.295728843236</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W23" t="n">
-        <v>1704.527073573122</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X23" t="n">
-        <v>1331.061315312042</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y23" t="n">
-        <v>1331.061315312042</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="24">
@@ -6050,10 +6050,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
@@ -6062,31 +6062,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6174,22 +6174,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U25" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V25" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W25" t="n">
-        <v>463.5809975486215</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X25" t="n">
-        <v>235.5914466506042</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y25" t="n">
         <v>235.5914466506042</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>808.6937513590203</v>
+        <v>1429.84311766362</v>
       </c>
       <c r="C26" t="n">
-        <v>439.7312344186087</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D26" t="n">
-        <v>439.7312344186087</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E26" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2508.596236031542</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T26" t="n">
-        <v>2289.961569003604</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U26" t="n">
-        <v>2289.961569003604</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V26" t="n">
-        <v>1958.898681660034</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W26" t="n">
-        <v>1958.898681660034</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X26" t="n">
-        <v>1585.432923398954</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y26" t="n">
-        <v>1195.293591423142</v>
+        <v>1816.442957727742</v>
       </c>
     </row>
     <row r="27">
@@ -6308,7 +6308,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L27" t="n">
         <v>670.8219208598708</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6417,19 +6417,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1019.519018857857</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1019.519018857857</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D29" t="n">
-        <v>1019.519018857857</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="E29" t="n">
-        <v>1019.519018857857</v>
+        <v>1106.127218649458</v>
       </c>
       <c r="F29" t="n">
-        <v>608.533114068249</v>
+        <v>695.1413138598505</v>
       </c>
       <c r="G29" t="n">
-        <v>190.5693059664359</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>190.5693059664359</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6493,22 +6493,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1796.25819089779</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1406.118858921978</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6542,43 +6542,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6600,16 +6600,16 @@
         <v>438.7118141694736</v>
       </c>
       <c r="C31" t="n">
-        <v>373.0594214943678</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D31" t="n">
-        <v>222.942782082032</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E31" t="n">
-        <v>222.942782082032</v>
+        <v>290.7987205870805</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>143.9087730891701</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1215.960741127172</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
         <v>471.9067899221776</v>
@@ -6700,10 +6700,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L32" t="n">
         <v>881.2824271224076</v>
@@ -6712,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6730,22 +6730,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1979.565831364064</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>1979.565831364064</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X32" t="n">
-        <v>1606.100073102984</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y32" t="n">
-        <v>1215.960741127172</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="33">
@@ -6782,22 +6782,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>149.5382038240415</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6891,19 +6891,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>438.9553738610022</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V34" t="n">
-        <v>438.9553738610022</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W34" t="n">
-        <v>149.5382038240415</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X34" t="n">
-        <v>149.5382038240415</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y34" t="n">
-        <v>149.5382038240415</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1190.010945960184</v>
+        <v>1392.984777118936</v>
       </c>
       <c r="C35" t="n">
-        <v>821.0484290197721</v>
+        <v>1024.022260178524</v>
       </c>
       <c r="D35" t="n">
-        <v>462.7827304130216</v>
+        <v>1024.022260178524</v>
       </c>
       <c r="E35" t="n">
-        <v>462.7827304130216</v>
+        <v>638.2340075802799</v>
       </c>
       <c r="F35" t="n">
-        <v>462.7827304130216</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>462.7827304130216</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H35" t="n">
-        <v>135.5880104490245</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V35" t="n">
-        <v>1916.245359491378</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="W35" t="n">
-        <v>1563.476704221264</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="X35" t="n">
-        <v>1190.010945960184</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="Y35" t="n">
-        <v>1190.010945960184</v>
+        <v>1779.584617183058</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7134,13 +7134,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W37" t="n">
-        <v>684.3735766921516</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X37" t="n">
-        <v>456.3840257941342</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.5914466506042</v>
+        <v>675.4941957298054</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1534.318342165211</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C38" t="n">
-        <v>1165.3558252248</v>
+        <v>962.0987983716302</v>
       </c>
       <c r="D38" t="n">
-        <v>1165.3558252248</v>
+        <v>603.8330997648798</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>603.8330997648798</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>603.8330997648798</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V38" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W38" t="n">
-        <v>2311.057514205145</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X38" t="n">
-        <v>2311.057514205145</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y38" t="n">
-        <v>1920.918182229333</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610022</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="V40" t="n">
-        <v>343.360151857325</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799423</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1370.712364606781</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="C41" t="n">
-        <v>1001.749847666369</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="D41" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V41" t="n">
-        <v>2147.451536646714</v>
+        <v>2012.400522021833</v>
       </c>
       <c r="W41" t="n">
-        <v>2147.451536646714</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.451536646714</v>
+        <v>1659.631866751719</v>
       </c>
       <c r="Y41" t="n">
-        <v>1757.312204670903</v>
+        <v>1269.492534775907</v>
       </c>
     </row>
     <row r="42">
@@ -7466,73 +7466,73 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>266.206002764199</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V43" t="n">
-        <v>502.7251118619119</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>502.7251118619119</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1099.292566481063</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>1099.292566481063</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>741.0268678743123</v>
+        <v>819.7159451700466</v>
       </c>
       <c r="E44" t="n">
-        <v>741.0268678743123</v>
+        <v>433.9276925718023</v>
       </c>
       <c r="F44" t="n">
-        <v>741.0268678743123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7651,13 +7651,13 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073312</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224068</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1485.892406545184</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1485.892406545184</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y44" t="n">
-        <v>1485.892406545184</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,73 +7703,73 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7836,13 +7836,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V46" t="n">
-        <v>184.2708856551153</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
         <v>53.94298182036444</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>247.3552705420797</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033752</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848498</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>226.4285348520591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033752</v>
+        <v>75.77844388033749</v>
       </c>
       <c r="K15" t="n">
-        <v>172.4310032247005</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>248.2266719449207</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509471</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033752</v>
+        <v>75.77844388033749</v>
       </c>
       <c r="K18" t="n">
-        <v>50.57316300554227</v>
+        <v>50.57316300554221</v>
       </c>
       <c r="L18" t="n">
-        <v>353.6167169118631</v>
+        <v>353.6167169118628</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033749</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247004</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>176.1159433919877</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509468</v>
+        <v>70.99581912509467</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,10 +9956,10 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K33" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711641</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,7 +22552,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>140.9160811946027</v>
@@ -22561,7 +22561,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22637,10 +22637,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>89.4935500423481</v>
+        <v>46.84073538823441</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22679,10 +22679,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,7 +22691,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22767,10 +22767,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22786,19 +22786,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>312.8473232832599</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>197.0482019127778</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22916,22 +22916,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>147.7461040295127</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23032,7 +23032,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23041,10 +23041,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>31.13252716541155</v>
+        <v>120.4276166479622</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,22 +23099,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>191.5810346332196</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23190,7 +23190,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -23226,7 +23226,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>99.64967256115261</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393332</v>
+        <v>86.42041023393327</v>
       </c>
       <c r="S11" t="n">
         <v>186.0031364379248</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>65.95092917802725</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.45005601543698</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207139</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>20.82414541425592</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.537897457236</v>
@@ -23439,7 +23439,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022415</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385096</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23472,13 +23472,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U13" t="n">
-        <v>92.47337197830285</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>246.649539867773</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>231.2002300319881</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>329.1304393464753</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393332</v>
+        <v>86.42041023393328</v>
       </c>
       <c r="S14" t="n">
         <v>186.0031364379248</v>
@@ -23551,13 +23551,13 @@
         <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>143.3089402696893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23579,22 +23579,22 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>122.671904442543</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H15" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>150.0758267829726</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23676,7 +23676,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,7 +23709,7 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>92.47337197830285</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.7324019448372</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12.16958268315801</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23816,13 +23816,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5139019613376</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>136.8030829366063</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23867,7 +23867,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>79.28624954052108</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>158.1988625129318</v>
       </c>
       <c r="I19" t="n">
-        <v>141.8250664795777</v>
+        <v>115.5420201168739</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385099</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
       </c>
       <c r="S19" t="n">
-        <v>22.07098981828395</v>
+        <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
         <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>230.5881701216545</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>44.88331134264024</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24059,13 +24059,13 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
-        <v>30.55712730904591</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
         <v>70.78957724245151</v>
@@ -24095,10 +24095,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
-        <v>161.6448423772186</v>
+        <v>79.28624954052117</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24180,16 +24180,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>31.96006767385956</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>324.742497455603</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>178.9228759640213</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24414,25 +24414,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>236.5249064007621</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>178.4750146693739</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>42.22678894696932</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24603,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24657,13 +24657,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24688,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>102.9205940660611</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>16.67125534025055</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,10 +24733,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24840,28 +24840,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>102.2509523502731</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.24366890293329</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>139.495721853277</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>303.5163274490149</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>72.60755131498752</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.3098022590509</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25131,13 +25131,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>194.2738373598198</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>242.2121002601901</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>71.10273790248785</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25374,13 +25374,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>243.2051448974512</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>166.4762127602322</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>102.2918708643775</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>345.2470422649433</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>82.46735232787626</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>237.0144601956447</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>291.9393758386285</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25806,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,19 +25842,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V43" t="n">
-        <v>28.98780970275092</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="G44" t="n">
-        <v>209.4252118366051</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>157.4983735401877</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465547.60781309</v>
+        <v>465547.6078130901</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675394.1115855707</v>
+        <v>675394.1115855705</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>781628.703216691</v>
+        <v>781628.7032166912</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>781628.7032166909</v>
+        <v>781628.703216691</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>781628.7032166912</v>
+        <v>781628.7032166909</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="C2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="D2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="E2" t="n">
         <v>235437.2422819576</v>
@@ -26328,31 +26328,31 @@
         <v>235437.2422819576</v>
       </c>
       <c r="G2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>274694.9795149696</v>
+      </c>
+      <c r="M2" t="n">
+        <v>274694.9795149699</v>
+      </c>
+      <c r="N2" t="n">
+        <v>274694.9795149698</v>
+      </c>
+      <c r="O2" t="n">
         <v>274694.9795149697</v>
-      </c>
-      <c r="J2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="K2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="L2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="M2" t="n">
-        <v>274694.9795149697</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149699</v>
-      </c>
-      <c r="O2" t="n">
-        <v>274694.9795149699</v>
       </c>
       <c r="P2" t="n">
         <v>274694.9795149697</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134255</v>
+        <v>287351.7100134257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>71355.62051871089</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,10 +26432,10 @@
         <v>43830.75094230082</v>
       </c>
       <c r="G4" t="n">
-        <v>43830.75094230083</v>
+        <v>43830.75094230082</v>
       </c>
       <c r="H4" t="n">
-        <v>43830.75094230083</v>
+        <v>43830.75094230082</v>
       </c>
       <c r="I4" t="n">
         <v>44802.65617556861</v>
@@ -26456,7 +26456,7 @@
         <v>44802.65617556861</v>
       </c>
       <c r="O4" t="n">
-        <v>44802.65617556861</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="P4" t="n">
         <v>44802.6561755686</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25433.4973664803</v>
+        <v>-14437.28780844379</v>
       </c>
       <c r="C6" t="n">
-        <v>55335.93416506745</v>
+        <v>66332.14372310387</v>
       </c>
       <c r="D6" t="n">
-        <v>55335.93416506745</v>
+        <v>66332.14372310396</v>
       </c>
       <c r="E6" t="n">
-        <v>-141419.9637133687</v>
+        <v>-134098.8143153047</v>
       </c>
       <c r="F6" t="n">
-        <v>145931.7463000569</v>
+        <v>153252.895698121</v>
       </c>
       <c r="G6" t="n">
-        <v>145931.7463000568</v>
+        <v>153252.895698121</v>
       </c>
       <c r="H6" t="n">
-        <v>145931.7463000568</v>
+        <v>153252.895698121</v>
       </c>
       <c r="I6" t="n">
-        <v>40303.7300184803</v>
+        <v>45765.30238971778</v>
       </c>
       <c r="J6" t="n">
-        <v>111532.4889310662</v>
+        <v>116994.0613023036</v>
       </c>
       <c r="K6" t="n">
-        <v>174592.4315301724</v>
+        <v>180054.0039014096</v>
       </c>
       <c r="L6" t="n">
-        <v>174592.4315301725</v>
+        <v>180054.0039014096</v>
       </c>
       <c r="M6" t="n">
-        <v>103236.8110114616</v>
+        <v>108698.383382699</v>
       </c>
       <c r="N6" t="n">
-        <v>174592.4315301726</v>
+        <v>180054.0039014098</v>
       </c>
       <c r="O6" t="n">
-        <v>174592.4315301726</v>
+        <v>180054.0039014097</v>
       </c>
       <c r="P6" t="n">
-        <v>174592.4315301725</v>
+        <v>180054.0039014098</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="H3" t="n">
         <v>251.2545088598902</v>
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.348458950013</v>
       </c>
       <c r="F4" t="n">
         <v>527.3484589500129</v>
@@ -26822,13 +26822,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571965</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723537</v>
+        <v>286.3341700723539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686802</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721636</v>
+        <v>63.44870770721641</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609527</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632917</v>
+        <v>51.05918278632921</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P12" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057177</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T12" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507748</v>
+        <v>4.028309994507751</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J13" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269906</v>
+        <v>67.3609219326991</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985387</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620548</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400153</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133578</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851382</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721636</v>
+        <v>63.4487077072164</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632917</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L15" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S15" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J16" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400152</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.01006837732619</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686799</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008883</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549029</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372556</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
         <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721636</v>
+        <v>63.4487077072164</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745401</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609521</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042919</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730924</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632917</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881672</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L18" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
         <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026662</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
         <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
-        <v>103.1992340258669</v>
+        <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.9859549609268</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S18" t="n">
         <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
-        <v>2.17832918530414</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922974</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227525</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507748</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J19" t="n">
-        <v>32.0328904164486</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269906</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985382</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620544</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464871</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970452</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400147</v>
+        <v>7.895981860400152</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133578</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0247135582485138</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,7 +32472,7 @@
         <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008887</v>
+        <v>85.72829094008888</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523066</v>
@@ -32481,7 +32481,7 @@
         <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N20" t="n">
         <v>180.2290257372557</v>
@@ -32496,13 +32496,13 @@
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.4487077072164</v>
       </c>
       <c r="S20" t="n">
         <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745403</v>
       </c>
       <c r="U20" t="n">
         <v>0.08080547018609525</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042921</v>
+        <v>0.5404342266042922</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730927</v>
+        <v>5.219456872730928</v>
       </c>
       <c r="I21" t="n">
         <v>18.60705560896357</v>
@@ -32554,7 +32554,7 @@
         <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881677</v>
+        <v>87.26827596881678</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
@@ -32572,7 +32572,7 @@
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092683</v>
+        <v>68.98595496092685</v>
       </c>
       <c r="R21" t="n">
         <v>33.55432856057176</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227528</v>
       </c>
       <c r="H22" t="n">
         <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J22" t="n">
         <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933435</v>
+        <v>52.63987906933436</v>
       </c>
       <c r="L22" t="n">
         <v>67.36092193269909</v>
@@ -32645,19 +32645,19 @@
         <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464875</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970455</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784342</v>
       </c>
       <c r="R22" t="n">
         <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400151</v>
+        <v>7.895981860400152</v>
       </c>
       <c r="T22" t="n">
         <v>1.935895396133579</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33198,22 +33198,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33286,16 +33286,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,13 +33356,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33371,7 +33371,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50.31259146007135</v>
       </c>
       <c r="K12" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L12" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>207.1303035041828</v>
       </c>
       <c r="O12" t="n">
         <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
-        <v>195.6533614635958</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345151</v>
       </c>
       <c r="L13" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301524</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868838</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P13" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P14" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>121.8578402191582</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L15" t="n">
-        <v>349.6289321378195</v>
+        <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
         <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>257.4428949642537</v>
       </c>
       <c r="O15" t="n">
         <v>379.8491252296668</v>
@@ -35746,7 +35746,7 @@
         <v>287.6875952514739</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L16" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M16" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868838</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P16" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547631</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257373</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526488</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512769</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P17" t="n">
         <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743891</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>332.4053037462235</v>
+        <v>332.4053037462232</v>
       </c>
       <c r="M18" t="n">
         <v>460.5047371566217</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345148</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L19" t="n">
-        <v>94.9509471930152</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M19" t="n">
         <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868838</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P19" t="n">
-        <v>52.076755754598</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547635</v>
+        <v>73.77900158547637</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784908</v>
@@ -36141,7 +36141,7 @@
         <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743897</v>
+        <v>99.08532226743898</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>50.31259146007134</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070364</v>
+        <v>121.8578402191581</v>
       </c>
       <c r="L21" t="n">
         <v>349.6289321378196</v>
@@ -36217,7 +36217,7 @@
         <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>145.3407700035245</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36293,10 +36293,10 @@
         <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868843</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459804</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
         <v>297.2230414343419</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36846,10 +36846,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36925,13 +36925,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37007,7 +37007,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
         <v>408.7029475713857</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37636,13 +37636,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343413</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
